--- a/transfer.xlsx
+++ b/transfer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>AppId</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>TaskGroupFinish</t>
+  </si>
+  <si>
+    <t>Expire</t>
   </si>
   <si>
     <t>user01</t>
@@ -353,6 +356,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="14.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -385,6 +391,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -397,7 +406,7 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4">
         <v>1.0</v>
@@ -412,11 +421,14 @@
         <v>2.0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -429,7 +441,7 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>1.0</v>
@@ -444,11 +456,14 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K3" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -461,7 +476,7 @@
         <v>3.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <v>1.0</v>
@@ -481,6 +496,9 @@
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -493,7 +511,7 @@
         <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4">
         <v>2.0</v>
@@ -513,6 +531,9 @@
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -525,7 +546,7 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>1.0</v>
@@ -544,6 +565,9 @@
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +604,7 @@
         <v>888.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>1001.0</v>
@@ -594,7 +618,7 @@
         <v>888.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>1002.0</v>
@@ -632,7 +656,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -646,10 +673,13 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>86400.0</v>
       </c>
     </row>
     <row r="3">
@@ -663,10 +693,13 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
